--- a/output/fit_clients/fit_round_187.xlsx
+++ b/output/fit_clients/fit_round_187.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1572255223.807279</v>
+        <v>2446893921.330234</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09957414527856734</v>
+        <v>0.1149246232232519</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04044606785496515</v>
+        <v>0.0345585476692338</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786127550.0446267</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2276606517.622046</v>
+        <v>1927179455.850433</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1467436459042453</v>
+        <v>0.1313453709921854</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04687418144904537</v>
+        <v>0.03699501305798029</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1138303341.681731</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5235650768.242838</v>
+        <v>4773839334.537475</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1125252635706814</v>
+        <v>0.1358139270490962</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02807319779667524</v>
+        <v>0.032808642237518</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>67</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2617825485.803876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2852755183.997318</v>
+        <v>4192977476.865358</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1018806272685038</v>
+        <v>0.0893546879803352</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03299583454832666</v>
+        <v>0.05042545748141232</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>75</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1426377671.598392</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2461468489.866899</v>
+        <v>2583727358.410623</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1169573890642705</v>
+        <v>0.1148031761731265</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03929786192523053</v>
+        <v>0.05677143342980091</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1230734224.563894</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2216866949.641761</v>
+        <v>2786456566.96207</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0937571682848196</v>
+        <v>0.08279571923334395</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04091710862558902</v>
+        <v>0.0455339744973105</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>59</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1108433515.061912</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2688649116.693473</v>
+        <v>2457264436.414402</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2095290045880381</v>
+        <v>0.1586946835347373</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02137687965066529</v>
+        <v>0.030302344290759</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>59</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1344324584.010849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2233143065.152215</v>
+        <v>1618486564.164958</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1450231051110006</v>
+        <v>0.174990680423966</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02753190866313564</v>
+        <v>0.02569795350081319</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1116571526.818339</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4651956186.014591</v>
+        <v>5549517376.453874</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1857821271905358</v>
+        <v>0.2053142854008767</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05035356984062031</v>
+        <v>0.04361019877138949</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>78</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2325978165.379653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3681850348.456085</v>
+        <v>3599406275.938213</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1809782819810763</v>
+        <v>0.1276885490934748</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04564294938662795</v>
+        <v>0.04694949240268146</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>77</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1840925164.699901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2331928178.99701</v>
+        <v>2173213984.766113</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1637604116286783</v>
+        <v>0.1879003851994027</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04546714412779901</v>
+        <v>0.03525410003663385</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>66</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1165964046.324595</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4508878071.468826</v>
+        <v>4224284277.759069</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07010616768747142</v>
+        <v>0.0828806758312115</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02202350482719854</v>
+        <v>0.02538849778757979</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>63</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2254439064.791385</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2746241911.076895</v>
+        <v>3766009719.908132</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1746855498008552</v>
+        <v>0.1250244143780825</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04152870969743932</v>
+        <v>0.02723545569161097</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>61</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1373121008.331608</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1214465772.996509</v>
+        <v>1504752305.327335</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09690458684290418</v>
+        <v>0.09131844658063652</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03407694053224282</v>
+        <v>0.04389582660868004</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>607232907.2314905</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2820327477.021293</v>
+        <v>2763484445.865384</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1083116334358718</v>
+        <v>0.1165371487149427</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05037943942812155</v>
+        <v>0.04838856312857049</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>29</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1410163740.674574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4655417670.744208</v>
+        <v>5234895244.429057</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1639503639133888</v>
+        <v>0.1190118287215902</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05221992187949164</v>
+        <v>0.0510531526143124</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>54</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2327708837.543153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2699095769.986988</v>
+        <v>3628183870.188716</v>
       </c>
       <c r="F18" t="n">
-        <v>0.124453565696079</v>
+        <v>0.1414479400055008</v>
       </c>
       <c r="G18" t="n">
-        <v>0.032799553715931</v>
+        <v>0.02562058634139487</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>61</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1349547936.98949</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1154713077.31564</v>
+        <v>1129450691.522295</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1159677341328631</v>
+        <v>0.1277903183521625</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02206744854655818</v>
+        <v>0.02392957838412522</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>577356605.5102404</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2736311994.875087</v>
+        <v>2543103538.81775</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1513371275237795</v>
+        <v>0.1054192930624396</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0285213936223834</v>
+        <v>0.02229686809546866</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>30</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1368155945.336259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2614223937.916345</v>
+        <v>2198008442.261491</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08994234961074492</v>
+        <v>0.08739148623993195</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03646509147878744</v>
+        <v>0.03978104548668331</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1307111946.152042</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2857835149.356986</v>
+        <v>3518480492.07248</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1003412678792273</v>
+        <v>0.1181777174084184</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04913392730003226</v>
+        <v>0.04741906358213255</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>52</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1428917644.70028</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1292741422.009117</v>
+        <v>1524349062.271988</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1848154924647461</v>
+        <v>0.1229539347080718</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03819208300985608</v>
+        <v>0.04275325035991503</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>646370731.8407232</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3605623646.554074</v>
+        <v>3621875726.050079</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1266344523233554</v>
+        <v>0.1084195703362061</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03617526353417942</v>
+        <v>0.03430267441955327</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>54</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1802811817.742988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1260258263.442676</v>
+        <v>1332063252.533274</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09254851345368981</v>
+        <v>0.1137393267403394</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02901630092817805</v>
+        <v>0.02760476225284896</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>630129135.8064464</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>966048673.2708789</v>
+        <v>966537649.204198</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1113032554556424</v>
+        <v>0.1143573616866377</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03565198168013162</v>
+        <v>0.03201756059541699</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>483024300.3851423</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3798984461.218691</v>
+        <v>3309863655.567768</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1189779491736897</v>
+        <v>0.1184359672750157</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02476981422337694</v>
+        <v>0.02182878595169123</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>43</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1899492250.706759</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2969747110.909199</v>
+        <v>3668366467.858343</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1145580127549041</v>
+        <v>0.1228088978671013</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03810555025879648</v>
+        <v>0.04185054460924692</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>60</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1484873564.031459</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5840274297.582391</v>
+        <v>4080435818.896226</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1025755760282764</v>
+        <v>0.1467765736738152</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04509333779559665</v>
+        <v>0.03965815734417959</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>82</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2920137038.069269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1714862459.435349</v>
+        <v>1983260190.978089</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1186285641290957</v>
+        <v>0.08585174245660811</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04010184226446399</v>
+        <v>0.03586933668122271</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>857431234.6568556</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1128738223.620677</v>
+        <v>1337647603.371611</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07156802398246284</v>
+        <v>0.08984560071696578</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03603339664215702</v>
+        <v>0.04522585392235543</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>564369080.0145091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1181965935.716249</v>
+        <v>1445636167.784503</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08822426171297261</v>
+        <v>0.1131665098583989</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02989324176858638</v>
+        <v>0.02915523380661453</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>590982970.3060049</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2878387884.500458</v>
+        <v>1881855904.07975</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1563042805273538</v>
+        <v>0.1888319708311556</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0504948555720024</v>
+        <v>0.03864493849002358</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>57</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1439193948.208662</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1396629802.245214</v>
+        <v>1155493821.163856</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07409239719413942</v>
+        <v>0.08829046761360795</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02361004784321172</v>
+        <v>0.01851825128250897</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>698314873.9482845</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1116702318.84987</v>
+        <v>1242735520.616472</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08105711835830577</v>
+        <v>0.1175928786056561</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02803230453099583</v>
+        <v>0.03573838861663294</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>558351152.3836756</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2591867295.774405</v>
+        <v>2083361353.985747</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1472865070738133</v>
+        <v>0.1664360688301152</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02024766282972974</v>
+        <v>0.0227801152411116</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>48</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1295933662.463061</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2821736995.483231</v>
+        <v>2539157716.755947</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0759943623306665</v>
+        <v>0.08763369481234932</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02662600327108708</v>
+        <v>0.03690223868035122</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>51</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1410868638.043891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1335122480.967721</v>
+        <v>1861242324.225322</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1086755462769787</v>
+        <v>0.1171403012470574</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0356467167770611</v>
+        <v>0.02906404568417396</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>667561313.0050921</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2138146394.431585</v>
+        <v>1780488106.39617</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1663770950550762</v>
+        <v>0.1688440753731944</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03241357821336589</v>
+        <v>0.03166712506694865</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1069073170.750786</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1209100140.835655</v>
+        <v>1195653778.928631</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1027745445633045</v>
+        <v>0.115185373919047</v>
       </c>
       <c r="G40" t="n">
-        <v>0.058440439619041</v>
+        <v>0.04622012314928226</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>604550109.4219843</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2597268315.947932</v>
+        <v>2188453425.943367</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1063362765049084</v>
+        <v>0.1281001694131237</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03784878573435412</v>
+        <v>0.04423440542930604</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>47</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1298634173.708614</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3313990418.865244</v>
+        <v>2752875316.916821</v>
       </c>
       <c r="F42" t="n">
-        <v>0.114103502260956</v>
+        <v>0.08690880144503851</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03701056408899676</v>
+        <v>0.0299155085426381</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>62</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1656995191.452175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2449443853.695907</v>
+        <v>2936169912.41321</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1365038550207798</v>
+        <v>0.1371085164614336</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02151790401330961</v>
+        <v>0.01765989836525844</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>65</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1224721980.579707</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1840321910.94624</v>
+        <v>2123859188.871969</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09378155110594068</v>
+        <v>0.09765248495898042</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03470371020920934</v>
+        <v>0.03632475256815351</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>920161029.9281205</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2172847972.795116</v>
+        <v>1842478685.874149</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1688217493011302</v>
+        <v>0.1474669404190855</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03582212465579752</v>
+        <v>0.03452495911270993</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1086423994.647969</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4619914726.633466</v>
+        <v>5163825495.475161</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1347810158048232</v>
+        <v>0.1587756958431916</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05108872319096367</v>
+        <v>0.05150530963740992</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>66</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2309957368.316387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3441122087.306293</v>
+        <v>3429522559.969664</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1554700181440595</v>
+        <v>0.1901712800382316</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05243529362646865</v>
+        <v>0.05626841532990415</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>50</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1720561011.087552</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3021887994.660402</v>
+        <v>3190340378.898685</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1070188980414411</v>
+        <v>0.1053224403750234</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02724386866718559</v>
+        <v>0.03681039802788159</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>65</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1510944088.509084</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1603049665.700736</v>
+        <v>1441853997.509071</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1732761231304501</v>
+        <v>0.1282486304252964</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04368217080340618</v>
+        <v>0.0367093225294166</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>801524848.8181994</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4028631006.363057</v>
+        <v>3769623240.790705</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1492910438373468</v>
+        <v>0.1076569941011294</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0511228489473679</v>
+        <v>0.03338196168267798</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>63</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2014315489.807715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1489796087.483712</v>
+        <v>1223413633.326467</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1747558334905638</v>
+        <v>0.1588068111235793</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05111854638775025</v>
+        <v>0.0438434798890744</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>744898048.3112199</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4517428378.948164</v>
+        <v>4557082654.087672</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09759358876154456</v>
+        <v>0.09893150806680084</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0506320267371592</v>
+        <v>0.03981041397406176</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>77</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2258714215.48169</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3095781601.077336</v>
+        <v>3023077675.241126</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1839290178106449</v>
+        <v>0.1732695552920472</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03261819556498725</v>
+        <v>0.02650857200482742</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>53</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1547890826.356235</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4154375804.597766</v>
+        <v>3717543157.91984</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1534078844868098</v>
+        <v>0.1251803052502755</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03460290001944389</v>
+        <v>0.04993790720875089</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>62</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2077187978.453383</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3435520657.724276</v>
+        <v>3954420132.99077</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1917281044332041</v>
+        <v>0.1904188420876079</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0227478308938511</v>
+        <v>0.03194328540164244</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>50</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1717760278.860062</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1759827067.150052</v>
+        <v>1770865896.466939</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1380851050373516</v>
+        <v>0.09956418393110059</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04704411209529336</v>
+        <v>0.05763925378598434</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>879913537.3302568</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4266319383.312903</v>
+        <v>3365334030.54598</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1576498742942306</v>
+        <v>0.1449237881522929</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02326266652494492</v>
+        <v>0.02017156651098382</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>59</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2133159802.366783</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1644388844.435433</v>
+        <v>1782939658.348827</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1341793828545389</v>
+        <v>0.140541437331875</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03392297193343249</v>
+        <v>0.03526777535031905</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>822194440.1559865</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3315337171.271253</v>
+        <v>3320111429.418571</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0830567171504106</v>
+        <v>0.08213971231206348</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03636661470064464</v>
+        <v>0.04340261892752814</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>53</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1657668594.556825</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2385889499.593846</v>
+        <v>2382122201.32666</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1434172414784463</v>
+        <v>0.1346358127904078</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03321478094144698</v>
+        <v>0.02911769498475125</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>61</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1192944755.705916</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2389757632.114662</v>
+        <v>3154017760.464125</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1290999713343286</v>
+        <v>0.1777143384735889</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03278256908127339</v>
+        <v>0.0270247287694271</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>66</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1194878854.046851</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1672466879.686615</v>
+        <v>1511235261.977737</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1329924372526096</v>
+        <v>0.1576415557577099</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03189485910895027</v>
+        <v>0.04842222146938432</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>836233448.7484161</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3449208094.327614</v>
+        <v>5499645873.470323</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08539026608645081</v>
+        <v>0.07135323351996957</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04745619513909876</v>
+        <v>0.03594178392853478</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>54</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1724604134.119566</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4998342208.140165</v>
+        <v>4097189396.438149</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1793450007442319</v>
+        <v>0.1585649828869306</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03415331572560132</v>
+        <v>0.03361748534907535</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>58</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2499171210.116913</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4103224447.652843</v>
+        <v>3864381480.427176</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1090062629902191</v>
+        <v>0.1560205470109292</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03082392106676125</v>
+        <v>0.02080483387690537</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>67</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2051612236.229283</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4297191184.023787</v>
+        <v>3651071852.433403</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1331898141080857</v>
+        <v>0.1528614731711432</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03604632663268514</v>
+        <v>0.03299643232694004</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>54</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2148595581.465567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3195977604.514215</v>
+        <v>2426243274.821526</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09168010521762075</v>
+        <v>0.07698026319892973</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04043430637116065</v>
+        <v>0.04998689941664509</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>61</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1597988803.940236</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3719791052.190473</v>
+        <v>3748831274.465449</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1240129568217161</v>
+        <v>0.09935931426469001</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03539381025753569</v>
+        <v>0.03319486705947988</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>61</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1859895504.876552</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2278402842.410988</v>
+        <v>2004858266.947758</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1750300750984322</v>
+        <v>0.1160466245589169</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05086657308346344</v>
+        <v>0.03731866898548379</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1139201462.159261</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2649605642.895423</v>
+        <v>3697476724.155645</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07001122970615076</v>
+        <v>0.06535463443309708</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04015776075979749</v>
+        <v>0.03378802374786637</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>53</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1324802775.573382</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4862727397.843255</v>
+        <v>5630352762.169167</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1698754427943822</v>
+        <v>0.1226091852594866</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03215410768719607</v>
+        <v>0.02285485707206378</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>68</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2431363794.386519</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2182952221.141634</v>
+        <v>1944325280.037882</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08176499637384305</v>
+        <v>0.07270418022134501</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04862371583623962</v>
+        <v>0.03350400588389719</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1091476027.382057</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2163050160.48607</v>
+        <v>3275376115.551851</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07257322264824484</v>
+        <v>0.0745716519031264</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05270575008686304</v>
+        <v>0.04125016020438228</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>72</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1081525152.846557</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3823664172.647002</v>
+        <v>3348115033.113883</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1121530866042939</v>
+        <v>0.1142408013909944</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02355478667875521</v>
+        <v>0.03454430214772754</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>63</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1911832080.504007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2104136939.785757</v>
+        <v>2449909134.777083</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1521533495122309</v>
+        <v>0.1066095391110735</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02973833613456317</v>
+        <v>0.02479595108569911</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1052068424.288832</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4558399583.550626</v>
+        <v>4314223803.267724</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1234567845935332</v>
+        <v>0.1174583706463934</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02306510547776545</v>
+        <v>0.02853307760721815</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>42</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2279199799.883183</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1948647764.406133</v>
+        <v>2227984465.15376</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1341374631391246</v>
+        <v>0.155340901204628</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02560766433128278</v>
+        <v>0.02609829660083402</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>974323936.0957084</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3486481279.316528</v>
+        <v>3214991853.262559</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1222993432235421</v>
+        <v>0.1313459965734212</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05100353331913518</v>
+        <v>0.05233965366641317</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>65</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1743240642.110662</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1533599505.874767</v>
+        <v>1289483538.929949</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1141380790288956</v>
+        <v>0.1100652158383095</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03523365432966872</v>
+        <v>0.02448040831473483</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>766799793.014871</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4330530057.516498</v>
+        <v>5165844177.421272</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1072505821649031</v>
+        <v>0.09731298652165291</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03433735478109237</v>
+        <v>0.03662446905937471</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>39</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2165265044.654168</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5181473483.776485</v>
+        <v>4959715008.451505</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08941548577988791</v>
+        <v>0.1122851185322162</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03269277906843378</v>
+        <v>0.02176052778714735</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>43</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2590736748.954381</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4307791780.099887</v>
+        <v>3767677465.84189</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1888203836749375</v>
+        <v>0.1310181901287868</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02132441681127839</v>
+        <v>0.01903689424029174</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>68</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2153895912.602711</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2265075115.917055</v>
+        <v>2243404493.984827</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1248915175263009</v>
+        <v>0.1205792867009627</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03286665243735955</v>
+        <v>0.03377935073631557</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1132537576.192618</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1756979039.570549</v>
+        <v>2539963382.329032</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1209256179760164</v>
+        <v>0.09763980999372955</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04609051722850797</v>
+        <v>0.04004704836416825</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>878489560.3485489</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2614928972.617697</v>
+        <v>3677887187.547197</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1288651889227347</v>
+        <v>0.165438176474101</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05162880770712051</v>
+        <v>0.0409937220554942</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>70</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1307464503.917094</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1712087269.366492</v>
+        <v>2591954001.06729</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1410608616206178</v>
+        <v>0.1384937782115605</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02570457789944757</v>
+        <v>0.01841583164149356</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>26</v>
-      </c>
-      <c r="J86" t="n">
-        <v>856043622.2503257</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>907601318.1085272</v>
+        <v>1265082279.110186</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1300445939363471</v>
+        <v>0.1506264127950519</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03055574161505122</v>
+        <v>0.03405333816686269</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>453800639.6884636</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3668905335.76041</v>
+        <v>2280396315.024055</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1591082357635775</v>
+        <v>0.1156461303195817</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02573410062814259</v>
+        <v>0.03902993163733295</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>74</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1834452764.4085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2259406609.255701</v>
+        <v>2150780528.271301</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1314042677733308</v>
+        <v>0.1014291824952881</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03206753167542001</v>
+        <v>0.03316101946269261</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>63</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1129703397.01581</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1864643380.384641</v>
+        <v>1649767244.795121</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08800040528851998</v>
+        <v>0.09704341546197483</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05413104202405943</v>
+        <v>0.05463492541123183</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>932321735.6228447</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2070505550.982277</v>
+        <v>2089252776.989651</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1357318326983576</v>
+        <v>0.1332384133130418</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05436141035937919</v>
+        <v>0.04328487917210941</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1035252738.317265</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2603588267.918913</v>
+        <v>2170828204.834861</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08694230662335878</v>
+        <v>0.07406669679354996</v>
       </c>
       <c r="G92" t="n">
-        <v>0.033965332824567</v>
+        <v>0.02953859973743196</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>46</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1301794125.747033</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3815665788.554187</v>
+        <v>3373297553.931548</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1064293940350355</v>
+        <v>0.1375013098591114</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03769602640927482</v>
+        <v>0.04431365039002164</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>55</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1907832906.805215</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1870068462.311019</v>
+        <v>2311463076.855959</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1070879529261182</v>
+        <v>0.168270027060203</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02908705070344536</v>
+        <v>0.04059126294139207</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>935034212.6226243</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2374497994.526842</v>
+        <v>2732661829.583926</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1061027757636455</v>
+        <v>0.1252910572974959</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03508370856025362</v>
+        <v>0.03665732233657999</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>44</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1187249042.447228</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1798657317.502198</v>
+        <v>1562101397.308544</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1021498724726333</v>
+        <v>0.0899738601995476</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03715064721720429</v>
+        <v>0.04034647604884452</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>899328667.1943191</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5332319277.337089</v>
+        <v>4802802983.696581</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1160797503732872</v>
+        <v>0.1449493583249414</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02739317222545769</v>
+        <v>0.02393069069604704</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>60</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2666159802.165292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3787395511.66511</v>
+        <v>3515524661.507989</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1174653074865548</v>
+        <v>0.1086689482163904</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02364102582112424</v>
+        <v>0.02443949097489411</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>49</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1893697793.90141</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3414415726.758149</v>
+        <v>2412996006.218569</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09567742390115098</v>
+        <v>0.132222652544547</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03378699824137513</v>
+        <v>0.02742999863939265</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>58</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1707207879.32467</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3647587050.890646</v>
+        <v>3587697668.114379</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1357254903316338</v>
+        <v>0.1148408960988962</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02334131691552361</v>
+        <v>0.02468944021586451</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>57</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1823793567.967083</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3362395042.517981</v>
+        <v>3443010156.145288</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1465921919935681</v>
+        <v>0.2000529535311484</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03681221011420611</v>
+        <v>0.03816807739750405</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>75</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1681197658.157661</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_187.xlsx
+++ b/output/fit_clients/fit_round_187.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2446893921.330234</v>
+        <v>1719334266.158721</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1149246232232519</v>
+        <v>0.07121799905573914</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0345585476692338</v>
+        <v>0.03689257013880397</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1927179455.850433</v>
+        <v>2232967853.754333</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1313453709921854</v>
+        <v>0.1504740969227379</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03699501305798029</v>
+        <v>0.03635762147007493</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4773839334.537475</v>
+        <v>4915228305.471099</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1358139270490962</v>
+        <v>0.1160985294897141</v>
       </c>
       <c r="G4" t="n">
-        <v>0.032808642237518</v>
+        <v>0.03804138716068384</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4192977476.865358</v>
+        <v>3539657365.525811</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0893546879803352</v>
+        <v>0.0765640660656568</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05042545748141232</v>
+        <v>0.03770624441723402</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2583727358.410623</v>
+        <v>2810940697.434773</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1148031761731265</v>
+        <v>0.1438557987745998</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05677143342980091</v>
+        <v>0.05523323044061404</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2786456566.96207</v>
+        <v>2321662860.921795</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08279571923334395</v>
+        <v>0.09384546110691964</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0455339744973105</v>
+        <v>0.04229873280184796</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2457264436.414402</v>
+        <v>3573256271.436549</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1586946835347373</v>
+        <v>0.2201837362793165</v>
       </c>
       <c r="G8" t="n">
-        <v>0.030302344290759</v>
+        <v>0.02278560306440083</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1618486564.164958</v>
+        <v>2274536306.159208</v>
       </c>
       <c r="F9" t="n">
-        <v>0.174990680423966</v>
+        <v>0.1414030598335044</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02569795350081319</v>
+        <v>0.02824960792567672</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5549517376.453874</v>
+        <v>5075716298.975674</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2053142854008767</v>
+        <v>0.1732172228227667</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04361019877138949</v>
+        <v>0.05298360562715164</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3599406275.938213</v>
+        <v>3874913426.56814</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1276885490934748</v>
+        <v>0.1352733324351488</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04694949240268146</v>
+        <v>0.030487712674762</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2173213984.766113</v>
+        <v>2582124255.737444</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1879003851994027</v>
+        <v>0.1951743002096878</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03525410003663385</v>
+        <v>0.03487712051000799</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4224284277.759069</v>
+        <v>4333263543.042547</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0828806758312115</v>
+        <v>0.06460736515467191</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02538849778757979</v>
+        <v>0.0280496622927903</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3766009719.908132</v>
+        <v>3236303162.296828</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1250244143780825</v>
+        <v>0.1792539433292528</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02723545569161097</v>
+        <v>0.03111959224441145</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1504752305.327335</v>
+        <v>1832786493.692536</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09131844658063652</v>
+        <v>0.06972520050658688</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04389582660868004</v>
+        <v>0.03963855771183667</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2763484445.865384</v>
+        <v>1953875460.831564</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1165371487149427</v>
+        <v>0.110836992591595</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04838856312857049</v>
+        <v>0.04215006040711737</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5234895244.429057</v>
+        <v>4533764527.47069</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1190118287215902</v>
+        <v>0.1361034466264811</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0510531526143124</v>
+        <v>0.04321501988826382</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3628183870.188716</v>
+        <v>2547714351.893858</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1414479400055008</v>
+        <v>0.1197326017404351</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02562058634139487</v>
+        <v>0.02913377362856585</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1129450691.522295</v>
+        <v>1073017975.595489</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1277903183521625</v>
+        <v>0.179944064176695</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02392957838412522</v>
+        <v>0.02379303786850896</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2543103538.81775</v>
+        <v>2774555492.626184</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1054192930624396</v>
+        <v>0.1076036685772621</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02229686809546866</v>
+        <v>0.02496649106604424</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2198008442.261491</v>
+        <v>2276601650.411946</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08739148623993195</v>
+        <v>0.08976216450956892</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03978104548668331</v>
+        <v>0.03258629110972491</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3518480492.07248</v>
+        <v>3942297630.979159</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1181777174084184</v>
+        <v>0.1020020841733114</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04741906358213255</v>
+        <v>0.04043251288452979</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1524349062.271988</v>
+        <v>1468347280.734946</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1229539347080718</v>
+        <v>0.1165463818989154</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04275325035991503</v>
+        <v>0.03600875521609835</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3621875726.050079</v>
+        <v>3852841673.66082</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1084195703362061</v>
+        <v>0.1144270377826268</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03430267441955327</v>
+        <v>0.03698418139667621</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,16 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1332063252.533274</v>
+        <v>1382651511.517021</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1137393267403394</v>
+        <v>0.09028002276424572</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02760476225284896</v>
+        <v>0.02040202997556265</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>966537649.204198</v>
+        <v>1250387421.014908</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1143573616866377</v>
+        <v>0.08193735608178594</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03201756059541699</v>
+        <v>0.03486576378670566</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3309863655.567768</v>
+        <v>4041658384.278187</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1184359672750157</v>
+        <v>0.1544382771376468</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02182878595169123</v>
+        <v>0.02164547808111975</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3668366467.858343</v>
+        <v>2382886921.670105</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1228088978671013</v>
+        <v>0.1504357140025871</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04185054460924692</v>
+        <v>0.03522216416250161</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4080435818.896226</v>
+        <v>4129420829.027628</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1467765736738152</v>
+        <v>0.1081153223622347</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03965815734417959</v>
+        <v>0.04428777248174165</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1983260190.978089</v>
+        <v>1988355574.024456</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08585174245660811</v>
+        <v>0.09102200646154017</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03586933668122271</v>
+        <v>0.03073373141795372</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1337647603.371611</v>
+        <v>1448007950.670367</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08984560071696578</v>
+        <v>0.07745089013426992</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04522585392235543</v>
+        <v>0.04575171298172093</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1445636167.784503</v>
+        <v>1667273202.591125</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1131665098583989</v>
+        <v>0.09722518217416551</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02915523380661453</v>
+        <v>0.02605332990839827</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1881855904.07975</v>
+        <v>2710230961.756971</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1888319708311556</v>
+        <v>0.126150260308579</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03864493849002358</v>
+        <v>0.04868393269091058</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1155493821.163856</v>
+        <v>980206368.2516779</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08829046761360795</v>
+        <v>0.108288023772925</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01851825128250897</v>
+        <v>0.01743240076165772</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1242735520.616472</v>
+        <v>855554605.6642369</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1175928786056561</v>
+        <v>0.1056300602374355</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03573838861663294</v>
+        <v>0.04039436881669245</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2083361353.985747</v>
+        <v>2454168997.652601</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1664360688301152</v>
+        <v>0.1401453241292338</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0227801152411116</v>
+        <v>0.02317725973969474</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2539157716.755947</v>
+        <v>1870083623.150939</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08763369481234932</v>
+        <v>0.1057576620351284</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03690223868035122</v>
+        <v>0.04039772917484506</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1861242324.225322</v>
+        <v>2090776358.347841</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1171403012470574</v>
+        <v>0.07671077806918486</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02906404568417396</v>
+        <v>0.03368058442678393</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1780488106.39617</v>
+        <v>1983207827.793916</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1688440753731944</v>
+        <v>0.1662954927987395</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03166712506694865</v>
+        <v>0.01995170783875647</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1195653778.928631</v>
+        <v>1216426598.643172</v>
       </c>
       <c r="F40" t="n">
-        <v>0.115185373919047</v>
+        <v>0.1616368721952417</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04622012314928226</v>
+        <v>0.04367771015025876</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2188453425.943367</v>
+        <v>2413649621.915778</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1281001694131237</v>
+        <v>0.1506388305958842</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04423440542930604</v>
+        <v>0.04598840988430794</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2752875316.916821</v>
+        <v>3251131608.648402</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08690880144503851</v>
+        <v>0.1179106891333525</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0299155085426381</v>
+        <v>0.04263811864956089</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2936169912.41321</v>
+        <v>2769490189.260036</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1371085164614336</v>
+        <v>0.1755462447543753</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01765989836525844</v>
+        <v>0.02537641300547823</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2123859188.871969</v>
+        <v>2211329308.912622</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09765248495898042</v>
+        <v>0.09861238143959951</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03632475256815351</v>
+        <v>0.02584688171537567</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1842478685.874149</v>
+        <v>2315028371.021984</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1474669404190855</v>
+        <v>0.154515834542379</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03452495911270993</v>
+        <v>0.0344868461255949</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5163825495.475161</v>
+        <v>5116087552.63466</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1587756958431916</v>
+        <v>0.1097511702405865</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05150530963740992</v>
+        <v>0.05647745409908431</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3429522559.969664</v>
+        <v>4337850144.647113</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1901712800382316</v>
+        <v>0.1802689063761835</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05626841532990415</v>
+        <v>0.04782270962048204</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3190340378.898685</v>
+        <v>3483970579.950871</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1053224403750234</v>
+        <v>0.1051465652974981</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03681039802788159</v>
+        <v>0.03022594348787007</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1441853997.509071</v>
+        <v>1967846496.843418</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1282486304252964</v>
+        <v>0.1845451085516194</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0367093225294166</v>
+        <v>0.03511169291376772</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3769623240.790705</v>
+        <v>2596761238.549509</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1076569941011294</v>
+        <v>0.1389301480910531</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03338196168267798</v>
+        <v>0.03969696500169985</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1223413633.326467</v>
+        <v>974812383.5976226</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1588068111235793</v>
+        <v>0.1383238860295682</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0438434798890744</v>
+        <v>0.0521262376101671</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4557082654.087672</v>
+        <v>3784259761.538605</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09893150806680084</v>
+        <v>0.1349685646708151</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03981041397406176</v>
+        <v>0.04385430740692915</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3023077675.241126</v>
+        <v>3036363154.301445</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1732695552920472</v>
+        <v>0.1854581730136853</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02650857200482742</v>
+        <v>0.02280303721660003</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3717543157.91984</v>
+        <v>3849819755.144238</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1251803052502755</v>
+        <v>0.1484772498899399</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04993790720875089</v>
+        <v>0.03864189846210112</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3954420132.99077</v>
+        <v>4338619553.989435</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1904188420876079</v>
+        <v>0.1669187729519669</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03194328540164244</v>
+        <v>0.02079466497670267</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1770865896.466939</v>
+        <v>1786366815.02642</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09956418393110059</v>
+        <v>0.1003251819903913</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05763925378598434</v>
+        <v>0.05667631460255473</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3365334030.54598</v>
+        <v>3407816407.468159</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1449237881522929</v>
+        <v>0.1782968288757368</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02017156651098382</v>
+        <v>0.02259092684901176</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1782939658.348827</v>
+        <v>1509705387.435711</v>
       </c>
       <c r="F58" t="n">
-        <v>0.140541437331875</v>
+        <v>0.1528581965365809</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03526777535031905</v>
+        <v>0.03698672958298804</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3320111429.418571</v>
+        <v>5068267901.549831</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08213971231206348</v>
+        <v>0.1007060646248634</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04340261892752814</v>
+        <v>0.04851448614593128</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2382122201.32666</v>
+        <v>2762961813.227508</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1346358127904078</v>
+        <v>0.1966269445817391</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02911769498475125</v>
+        <v>0.02498652599781066</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3154017760.464125</v>
+        <v>2519084542.868668</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1777143384735889</v>
+        <v>0.1604999193405381</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0270247287694271</v>
+        <v>0.02675086221493095</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1511235261.977737</v>
+        <v>1650854873.444755</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1576415557577099</v>
+        <v>0.1567304616441275</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04842222146938432</v>
+        <v>0.03617506446487324</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5499645873.470323</v>
+        <v>4066405468.382813</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07135323351996957</v>
+        <v>0.1065776754744338</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03594178392853478</v>
+        <v>0.02873753241212845</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4097189396.438149</v>
+        <v>4574694634.671832</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1585649828869306</v>
+        <v>0.1591670544349499</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03361748534907535</v>
+        <v>0.03390950261421861</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3864381480.427176</v>
+        <v>5880171678.009777</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1560205470109292</v>
+        <v>0.1242119201799717</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02080483387690537</v>
+        <v>0.02995857999315804</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3651071852.433403</v>
+        <v>4946998639.140872</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1528614731711432</v>
+        <v>0.1132727251436371</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03299643232694004</v>
+        <v>0.03229021620881559</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2426243274.821526</v>
+        <v>2917531674.484906</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07698026319892973</v>
+        <v>0.08112419412039965</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04998689941664509</v>
+        <v>0.03763540897706798</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3748831274.465449</v>
+        <v>5152686643.135723</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09935931426469001</v>
+        <v>0.1347057126659622</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03319486705947988</v>
+        <v>0.05135670763250157</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2004858266.947758</v>
+        <v>1815240841.52738</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1160466245589169</v>
+        <v>0.1498972667219461</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03731866898548379</v>
+        <v>0.04635234999322526</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3697476724.155645</v>
+        <v>3358414006.756551</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06535463443309708</v>
+        <v>0.07086234274722548</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03378802374786637</v>
+        <v>0.04021791871720908</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5630352762.169167</v>
+        <v>5378535686.293</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1226091852594866</v>
+        <v>0.1525430411596836</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02285485707206378</v>
+        <v>0.02073777382315857</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1944325280.037882</v>
+        <v>2254313376.603121</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07270418022134501</v>
+        <v>0.1063185501239981</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03350400588389719</v>
+        <v>0.05186869720993064</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3275376115.551851</v>
+        <v>3247123041.984444</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0745716519031264</v>
+        <v>0.09853487905155912</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04125016020438228</v>
+        <v>0.04777680181372928</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3348115033.113883</v>
+        <v>2701874461.015143</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1142408013909944</v>
+        <v>0.115773011828524</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03454430214772754</v>
+        <v>0.02956563966166188</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2449909134.777083</v>
+        <v>1853223631.947765</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1066095391110735</v>
+        <v>0.1525872502459987</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02479595108569911</v>
+        <v>0.0333201774444134</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4314223803.267724</v>
+        <v>4713818593.731144</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1174583706463934</v>
+        <v>0.09728060267968089</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02853307760721815</v>
+        <v>0.0311281150265756</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2227984465.15376</v>
+        <v>2159998538.622568</v>
       </c>
       <c r="F77" t="n">
-        <v>0.155340901204628</v>
+        <v>0.145108330026654</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02609829660083402</v>
+        <v>0.02679852765477692</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3214991853.262559</v>
+        <v>4566408585.477545</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1313459965734212</v>
+        <v>0.1148067771880988</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05233965366641317</v>
+        <v>0.03930213236312293</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1289483538.929949</v>
+        <v>1643987374.545613</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1100652158383095</v>
+        <v>0.1527386739124025</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02448040831473483</v>
+        <v>0.03362125751546927</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5165844177.421272</v>
+        <v>3899940627.605015</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09731298652165291</v>
+        <v>0.08546629704786091</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03662446905937471</v>
+        <v>0.03096969505318786</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4959715008.451505</v>
+        <v>3283845469.131187</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1122851185322162</v>
+        <v>0.1184313944101477</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02176052778714735</v>
+        <v>0.0225525022811506</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3767677465.84189</v>
+        <v>5099041653.354876</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1310181901287868</v>
+        <v>0.1936489840693308</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01903689424029174</v>
+        <v>0.02699899610238641</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2243404493.984827</v>
+        <v>2210098068.894962</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1205792867009627</v>
+        <v>0.1095359646940093</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03377935073631557</v>
+        <v>0.04491000511032242</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2539963382.329032</v>
+        <v>2508537917.729039</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09763980999372955</v>
+        <v>0.09139711083122047</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04004704836416825</v>
+        <v>0.04219687342254595</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3677887187.547197</v>
+        <v>2679846486.008782</v>
       </c>
       <c r="F85" t="n">
-        <v>0.165438176474101</v>
+        <v>0.1838464958413858</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0409937220554942</v>
+        <v>0.0354400928135901</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2591954001.06729</v>
+        <v>2072201589.080328</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1384937782115605</v>
+        <v>0.1457292171368313</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01841583164149356</v>
+        <v>0.01908402530990987</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1265082279.110186</v>
+        <v>1094111538.5301</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1506264127950519</v>
+        <v>0.1169869844792963</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03405333816686269</v>
+        <v>0.04043518282234886</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2280396315.024055</v>
+        <v>3324906385.057375</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1156461303195817</v>
+        <v>0.1690547980345307</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03902993163733295</v>
+        <v>0.03262569434978257</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2150780528.271301</v>
+        <v>3372251266.547303</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1014291824952881</v>
+        <v>0.1271427786983825</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03316101946269261</v>
+        <v>0.03746567203176603</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1649767244.795121</v>
+        <v>1732767705.383763</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09704341546197483</v>
+        <v>0.1286200086664021</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05463492541123183</v>
+        <v>0.05558689610827192</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2089252776.989651</v>
+        <v>1764580998.05343</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1332384133130418</v>
+        <v>0.1513173538352509</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04328487917210941</v>
+        <v>0.04420954569322354</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2170828204.834861</v>
+        <v>2027679181.003932</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07406669679354996</v>
+        <v>0.07910447606056115</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02953859973743196</v>
+        <v>0.03561640631064378</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3373297553.931548</v>
+        <v>4494904983.699612</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1375013098591114</v>
+        <v>0.09537113395220176</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04431365039002164</v>
+        <v>0.03979985935614817</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2311463076.855959</v>
+        <v>2341100878.64131</v>
       </c>
       <c r="F94" t="n">
-        <v>0.168270027060203</v>
+        <v>0.1159929068000781</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04059126294139207</v>
+        <v>0.03039909176798957</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2732661829.583926</v>
+        <v>3024113701.621724</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1252910572974959</v>
+        <v>0.1172080918309696</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03665732233657999</v>
+        <v>0.0357698201413344</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1562101397.308544</v>
+        <v>1477035363.338284</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0899738601995476</v>
+        <v>0.08530466959838261</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04034647604884452</v>
+        <v>0.042989979517579</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4802802983.696581</v>
+        <v>4493886621.196908</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1449493583249414</v>
+        <v>0.1766971858238915</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02393069069604704</v>
+        <v>0.01827976501622643</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3515524661.507989</v>
+        <v>3128803037.553502</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1086689482163904</v>
+        <v>0.08268766619834929</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02443949097489411</v>
+        <v>0.02105909458352668</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2412996006.218569</v>
+        <v>3168511890.086103</v>
       </c>
       <c r="F99" t="n">
-        <v>0.132222652544547</v>
+        <v>0.0995062976477486</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02742999863939265</v>
+        <v>0.02687771534596922</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3587697668.114379</v>
+        <v>3752229898.142552</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1148408960988962</v>
+        <v>0.1406829352021228</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02468944021586451</v>
+        <v>0.0251431740938142</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3443010156.145288</v>
+        <v>3093186843.368797</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2000529535311484</v>
+        <v>0.2098613130895544</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03816807739750405</v>
+        <v>0.05137584651443237</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_187.xlsx
+++ b/output/fit_clients/fit_round_187.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1719334266.158721</v>
+        <v>2305591167.478538</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07121799905573914</v>
+        <v>0.08627597751314157</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03689257013880397</v>
+        <v>0.03636963598401539</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2232967853.754333</v>
+        <v>1596693038.27272</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1504740969227379</v>
+        <v>0.1413012312852785</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03635762147007493</v>
+        <v>0.04271695333387376</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4915228305.471099</v>
+        <v>4970597128.984118</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1160985294897141</v>
+        <v>0.1492715237475414</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03804138716068384</v>
+        <v>0.03762171257447662</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>103</v>
+      </c>
+      <c r="J4" t="n">
+        <v>187</v>
+      </c>
+      <c r="K4" t="n">
+        <v>123.6405598493221</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3539657365.525811</v>
+        <v>2811977076.589839</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0765640660656568</v>
+        <v>0.08137428980060663</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03770624441723402</v>
+        <v>0.04649420210867654</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>77</v>
+      </c>
+      <c r="J5" t="n">
+        <v>184</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2810940697.434773</v>
+        <v>2404119904.158151</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1438557987745998</v>
+        <v>0.1265409190090415</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05523323044061404</v>
+        <v>0.05065305917372803</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2321662860.921795</v>
+        <v>2237972538.655979</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09384546110691964</v>
+        <v>0.08774262900829344</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04229873280184796</v>
+        <v>0.0308817632608557</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3573256271.436549</v>
+        <v>3665950166.975495</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2201837362793165</v>
+        <v>0.1913780755752182</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02278560306440083</v>
+        <v>0.03342860134275196</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>52</v>
+      </c>
+      <c r="J8" t="n">
+        <v>187</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2274536306.159208</v>
+        <v>1957140735.961926</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1414030598335044</v>
+        <v>0.1988521101166008</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02824960792567672</v>
+        <v>0.03727432963472824</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5075716298.975674</v>
+        <v>5247526249.750202</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1732172228227667</v>
+        <v>0.1988105220064552</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05298360562715164</v>
+        <v>0.04897152202266044</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>171</v>
+      </c>
+      <c r="J10" t="n">
+        <v>187</v>
+      </c>
+      <c r="K10" t="n">
+        <v>135.7873970344613</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3874913426.56814</v>
+        <v>2695263584.863538</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1352733324351488</v>
+        <v>0.164659204721734</v>
       </c>
       <c r="G11" t="n">
-        <v>0.030487712674762</v>
+        <v>0.03335257912306386</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>77</v>
+      </c>
+      <c r="J11" t="n">
+        <v>182</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2582124255.737444</v>
+        <v>2282676403.410881</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1951743002096878</v>
+        <v>0.1245847912973395</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03487712051000799</v>
+        <v>0.04457628943774039</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4333263543.042547</v>
+        <v>3486505953.474682</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06460736515467191</v>
+        <v>0.07991623608928246</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0280496622927903</v>
+        <v>0.02909851868276038</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>93</v>
+      </c>
+      <c r="J13" t="n">
+        <v>186</v>
+      </c>
+      <c r="K13" t="n">
+        <v>76.13674886374817</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3236303162.296828</v>
+        <v>2898285076.308811</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1792539433292528</v>
+        <v>0.1811621105996095</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03111959224441145</v>
+        <v>0.03779296802085418</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>35</v>
+      </c>
+      <c r="J14" t="n">
+        <v>184</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1832786493.692536</v>
+        <v>1379366361.990922</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06972520050658688</v>
+        <v>0.08003534070237414</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03963855771183667</v>
+        <v>0.04094324286441113</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1953875460.831564</v>
+        <v>1938552975.422554</v>
       </c>
       <c r="F16" t="n">
-        <v>0.110836992591595</v>
+        <v>0.08544491766322707</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04215006040711737</v>
+        <v>0.03171362697124362</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4533764527.47069</v>
+        <v>3492342517.699122</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1361034466264811</v>
+        <v>0.15797691113712</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04321501988826382</v>
+        <v>0.04370068966773019</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>90</v>
+      </c>
+      <c r="J17" t="n">
+        <v>186</v>
+      </c>
+      <c r="K17" t="n">
+        <v>70.72897304624487</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2547714351.893858</v>
+        <v>3757313244.388224</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1197326017404351</v>
+        <v>0.118975085669878</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02913377362856585</v>
+        <v>0.02292751942340657</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>47</v>
+      </c>
+      <c r="J18" t="n">
+        <v>187</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1073017975.595489</v>
+        <v>843794365.5178946</v>
       </c>
       <c r="F19" t="n">
-        <v>0.179944064176695</v>
+        <v>0.1696666427327256</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02379303786850896</v>
+        <v>0.02283464674433552</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2774555492.626184</v>
+        <v>2462111396.036567</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1076036685772621</v>
+        <v>0.1367688634356271</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02496649106604424</v>
+        <v>0.03049290181756467</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2276601650.411946</v>
+        <v>2659575459.931186</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08976216450956892</v>
+        <v>0.08945166698806922</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03258629110972491</v>
+        <v>0.03988229556968514</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3942297630.979159</v>
+        <v>3279989708.623844</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1020020841733114</v>
+        <v>0.1027699854381178</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04043251288452979</v>
+        <v>0.04920812657822611</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>47</v>
+      </c>
+      <c r="J22" t="n">
+        <v>187</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1468347280.734946</v>
+        <v>1069127939.045276</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1165463818989154</v>
+        <v>0.1822382998294575</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03600875521609835</v>
+        <v>0.04707694278299229</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3852841673.66082</v>
+        <v>3870669586.261341</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1144270377826268</v>
+        <v>0.1456153196665095</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03698418139667621</v>
+        <v>0.03000566045733177</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>58</v>
+      </c>
+      <c r="J24" t="n">
+        <v>187</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1382651511.517021</v>
+        <v>1369489967.209584</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09028002276424572</v>
+        <v>0.1070907876080558</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02040202997556265</v>
+        <v>0.02186081483715856</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1250387421.014908</v>
+        <v>1437354687.629859</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08193735608178594</v>
+        <v>0.1031971557607437</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03486576378670566</v>
+        <v>0.0239847134722468</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4041658384.278187</v>
+        <v>4600032601.260577</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1544382771376468</v>
+        <v>0.1480144481347403</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02164547808111975</v>
+        <v>0.02422941953469887</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>74</v>
+      </c>
+      <c r="J27" t="n">
+        <v>187</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1419,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2382886921.670105</v>
+        <v>2680638516.249107</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1504357140025871</v>
+        <v>0.1347567338167409</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03522216416250161</v>
+        <v>0.04192971950303515</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>38</v>
+      </c>
+      <c r="J28" t="n">
+        <v>185</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4129420829.027628</v>
+        <v>4444154984.232546</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1081153223622347</v>
+        <v>0.1326042930671356</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04428777248174165</v>
+        <v>0.03736141876753872</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>176</v>
+      </c>
+      <c r="J29" t="n">
+        <v>187</v>
+      </c>
+      <c r="K29" t="n">
+        <v>142.1818192917385</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1988355574.024456</v>
+        <v>2195903035.101935</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09102200646154017</v>
+        <v>0.1181924602359767</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03073373141795372</v>
+        <v>0.0306646669893942</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1448007950.670367</v>
+        <v>1263790681.839496</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07745089013426992</v>
+        <v>0.1012939041869652</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04575171298172093</v>
+        <v>0.0478626568849855</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1667273202.591125</v>
+        <v>1232231650.264829</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09722518217416551</v>
+        <v>0.1178548237225658</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02605332990839827</v>
+        <v>0.03576985487281147</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1596,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2710230961.756971</v>
+        <v>3046305513.918998</v>
       </c>
       <c r="F33" t="n">
-        <v>0.126150260308579</v>
+        <v>0.1363479329989282</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04868393269091058</v>
+        <v>0.04943708365450043</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>980206368.2516779</v>
+        <v>1132910888.282703</v>
       </c>
       <c r="F34" t="n">
-        <v>0.108288023772925</v>
+        <v>0.1066855354727207</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01743240076165772</v>
+        <v>0.022193065264558</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>855554605.6642369</v>
+        <v>1154259265.408623</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1056300602374355</v>
+        <v>0.1064444490878286</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04039436881669245</v>
+        <v>0.04250541290035247</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2454168997.652601</v>
+        <v>2546074687.254053</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1401453241292338</v>
+        <v>0.1354204748577348</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02317725973969474</v>
+        <v>0.02068681533076719</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1736,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1870083623.150939</v>
+        <v>2802219871.043624</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1057576620351284</v>
+        <v>0.09689116213150245</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04039772917484506</v>
+        <v>0.02567416597864278</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2090776358.347841</v>
+        <v>1940135444.962193</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07671077806918486</v>
+        <v>0.1200237701187193</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03368058442678393</v>
+        <v>0.03260526073917197</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1983207827.793916</v>
+        <v>2162652519.470279</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1662954927987395</v>
+        <v>0.1643714866646342</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01995170783875647</v>
+        <v>0.02173181497023408</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1216426598.643172</v>
+        <v>1749353188.266597</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1616368721952417</v>
+        <v>0.1123173666473787</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04367771015025876</v>
+        <v>0.04784723491724359</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2413649621.915778</v>
+        <v>2362716882.200349</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1506388305958842</v>
+        <v>0.1215999830172915</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04598840988430794</v>
+        <v>0.02915538541210976</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3251131608.648402</v>
+        <v>2994923312.877985</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1179106891333525</v>
+        <v>0.1104882043561824</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04263811864956089</v>
+        <v>0.03612845141136301</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>71</v>
+      </c>
+      <c r="J42" t="n">
+        <v>186</v>
+      </c>
+      <c r="K42" t="n">
+        <v>58.46482374956856</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2769490189.260036</v>
+        <v>2560210905.662994</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1755462447543753</v>
+        <v>0.1677745256993071</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02537641300547823</v>
+        <v>0.02305686826035047</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2211329308.912622</v>
+        <v>1450564409.70507</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09861238143959951</v>
+        <v>0.09452505333253367</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02584688171537567</v>
+        <v>0.02490887176642963</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2315028371.021984</v>
+        <v>2314523684.702092</v>
       </c>
       <c r="F45" t="n">
-        <v>0.154515834542379</v>
+        <v>0.1561446840730567</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0344868461255949</v>
+        <v>0.05077854718408042</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5116087552.63466</v>
+        <v>4180085813.130393</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1097511702405865</v>
+        <v>0.136498002180545</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05647745409908431</v>
+        <v>0.0563293867466412</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>106</v>
+      </c>
+      <c r="J46" t="n">
+        <v>187</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,16 +2088,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4337850144.647113</v>
+        <v>4668693264.382954</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1802689063761835</v>
+        <v>0.1534136549455568</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04782270962048204</v>
+        <v>0.05825953789076724</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>83</v>
+      </c>
+      <c r="J47" t="n">
+        <v>186</v>
+      </c>
+      <c r="K47" t="n">
+        <v>103.0397242295535</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3483970579.950871</v>
+        <v>2880085413.04966</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1051465652974981</v>
+        <v>0.1004786121823523</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03022594348787007</v>
+        <v>0.02446829076628762</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>88</v>
+      </c>
+      <c r="J48" t="n">
+        <v>186</v>
+      </c>
+      <c r="K48" t="n">
+        <v>53.5632876542246</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1967846496.843418</v>
+        <v>1779148988.310878</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1845451085516194</v>
+        <v>0.1421991589292846</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03511169291376772</v>
+        <v>0.04130393583315582</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2596761238.549509</v>
+        <v>4157277784.371893</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1389301480910531</v>
+        <v>0.1430048896575853</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03969696500169985</v>
+        <v>0.03751289077886832</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>58</v>
+      </c>
+      <c r="J50" t="n">
+        <v>187</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>974812383.5976226</v>
+        <v>1456617135.495816</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1383238860295682</v>
+        <v>0.1210991550254597</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0521262376101671</v>
+        <v>0.05214004767154034</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3784259761.538605</v>
+        <v>3541503489.506429</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1349685646708151</v>
+        <v>0.1054186720411317</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04385430740692915</v>
+        <v>0.06130101289584448</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>131</v>
+      </c>
+      <c r="J52" t="n">
+        <v>187</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3036363154.301445</v>
+        <v>2830549717.455328</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1854581730136853</v>
+        <v>0.1543536050936475</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02280303721660003</v>
+        <v>0.03289456720619625</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>26</v>
+      </c>
+      <c r="J53" t="n">
+        <v>185</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3849819755.144238</v>
+        <v>3588396890.498042</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1484772498899399</v>
+        <v>0.1277147548196102</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03864189846210112</v>
+        <v>0.05279235032202411</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>95</v>
+      </c>
+      <c r="J54" t="n">
+        <v>186</v>
+      </c>
+      <c r="K54" t="n">
+        <v>83.85616003423669</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4338619553.989435</v>
+        <v>4391723356.924012</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1669187729519669</v>
+        <v>0.2097830187115625</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02079466497670267</v>
+        <v>0.02063685370948896</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>85</v>
+      </c>
+      <c r="J55" t="n">
+        <v>186</v>
+      </c>
+      <c r="K55" t="n">
+        <v>117.3101057724841</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1786366815.02642</v>
+        <v>1803779719.061353</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1003251819903913</v>
+        <v>0.1569445994746739</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05667631460255473</v>
+        <v>0.04387990379740991</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3407816407.468159</v>
+        <v>3901675874.433359</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1782968288757368</v>
+        <v>0.153754831029545</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02259092684901176</v>
+        <v>0.02132698708244581</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>75</v>
+      </c>
+      <c r="J57" t="n">
+        <v>186</v>
+      </c>
+      <c r="K57" t="n">
+        <v>95.24488487842713</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1509705387.435711</v>
+        <v>1175521294.304541</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1528581965365809</v>
+        <v>0.1875797971354561</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03698672958298804</v>
+        <v>0.03564860023787972</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5068267901.549831</v>
+        <v>5197111933.577409</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1007060646248634</v>
+        <v>0.1081562835471207</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04851448614593128</v>
+        <v>0.04210462898463303</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>90</v>
+      </c>
+      <c r="J59" t="n">
+        <v>186</v>
+      </c>
+      <c r="K59" t="n">
+        <v>115.3675302997463</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2762961813.227508</v>
+        <v>3331340054.191387</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1966269445817391</v>
+        <v>0.129848188720441</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02498652599781066</v>
+        <v>0.0219387520787239</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>26</v>
+      </c>
+      <c r="J60" t="n">
+        <v>187</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2519084542.868668</v>
+        <v>2941476245.631478</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1604999193405381</v>
+        <v>0.1474516906476908</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02675086221493095</v>
+        <v>0.02863401386707154</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1650854873.444755</v>
+        <v>1965931255.884582</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1567304616441275</v>
+        <v>0.1464659408786928</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03617506446487324</v>
+        <v>0.03886071786400897</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4066405468.382813</v>
+        <v>4850905340.259811</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1065776754744338</v>
+        <v>0.09067866976617744</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02873753241212845</v>
+        <v>0.04083773827357658</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>92</v>
+      </c>
+      <c r="J63" t="n">
+        <v>186</v>
+      </c>
+      <c r="K63" t="n">
+        <v>116.7110946635972</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2697,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4574694634.671832</v>
+        <v>4629445765.715937</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1591670544349499</v>
+        <v>0.1584865046531186</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03390950261421861</v>
+        <v>0.03362857077665703</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>92</v>
+      </c>
+      <c r="J64" t="n">
+        <v>186</v>
+      </c>
+      <c r="K64" t="n">
+        <v>118.5780803488054</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2734,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5880171678.009777</v>
+        <v>3810174957.334717</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1242119201799717</v>
+        <v>0.111719052811695</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02995857999315804</v>
+        <v>0.02213136242288059</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>152</v>
+      </c>
+      <c r="J65" t="n">
+        <v>186</v>
+      </c>
+      <c r="K65" t="n">
+        <v>92.7857534939312</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2765,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4946998639.140872</v>
+        <v>4589247447.380993</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1132727251436371</v>
+        <v>0.129061723953543</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03229021620881559</v>
+        <v>0.0383124133126911</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>92</v>
+      </c>
+      <c r="J66" t="n">
+        <v>186</v>
+      </c>
+      <c r="K66" t="n">
+        <v>113.3332115870863</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2808,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2917531674.484906</v>
+        <v>2308387795.812423</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08112419412039965</v>
+        <v>0.1031401102188969</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03763540897706798</v>
+        <v>0.03845668610178803</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2837,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5152686643.135723</v>
+        <v>5650661518.35465</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1347057126659622</v>
+        <v>0.1497716738943296</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05135670763250157</v>
+        <v>0.05019997104422505</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>94</v>
+      </c>
+      <c r="J68" t="n">
+        <v>187</v>
+      </c>
+      <c r="K68" t="n">
+        <v>120.2671561595742</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2874,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1815240841.52738</v>
+        <v>1809440824.23578</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1498972667219461</v>
+        <v>0.1413298307151034</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04635234999322526</v>
+        <v>0.05227380186269105</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2915,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3358414006.756551</v>
+        <v>2808684596.640772</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07086234274722548</v>
+        <v>0.07188892939469602</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04021791871720908</v>
+        <v>0.03174847225149176</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>26</v>
+      </c>
+      <c r="J70" t="n">
+        <v>185</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2944,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5378535686.293</v>
+        <v>3998869967.190595</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1525430411596836</v>
+        <v>0.1823827605548794</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02073777382315857</v>
+        <v>0.0225745082363505</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>144</v>
+      </c>
+      <c r="J71" t="n">
+        <v>187</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2985,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2254313376.603121</v>
+        <v>1616873916.23625</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1063185501239981</v>
+        <v>0.105253204800376</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05186869720993064</v>
+        <v>0.04447596638647916</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3247123041.984444</v>
+        <v>3047420774.423127</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09853487905155912</v>
+        <v>0.1029054856523351</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04777680181372928</v>
+        <v>0.04936270272134732</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>185</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2701874461.015143</v>
+        <v>3730632324.227106</v>
       </c>
       <c r="F74" t="n">
-        <v>0.115773011828524</v>
+        <v>0.1386239755903987</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02956563966166188</v>
+        <v>0.03058700730083377</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>53</v>
+      </c>
+      <c r="J74" t="n">
+        <v>187</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1853223631.947765</v>
+        <v>2218221491.413687</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1525872502459987</v>
+        <v>0.1570704167831237</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0333201774444134</v>
+        <v>0.03572896806076042</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3125,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4713818593.731144</v>
+        <v>4833067418.244861</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09728060267968089</v>
+        <v>0.1233855038775374</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0311281150265756</v>
+        <v>0.02440550478518138</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>85</v>
+      </c>
+      <c r="J76" t="n">
+        <v>187</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2159998538.622568</v>
+        <v>2261042954.624407</v>
       </c>
       <c r="F77" t="n">
-        <v>0.145108330026654</v>
+        <v>0.1853441500892226</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02679852765477692</v>
+        <v>0.02205866978222767</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3195,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4566408585.477545</v>
+        <v>2974600600.023302</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1148067771880988</v>
+        <v>0.1327734498988711</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03930213236312293</v>
+        <v>0.04750478136624818</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>96</v>
+      </c>
+      <c r="J78" t="n">
+        <v>186</v>
+      </c>
+      <c r="K78" t="n">
+        <v>57.04235788873077</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1643987374.545613</v>
+        <v>1919884698.310731</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1527386739124025</v>
+        <v>0.1433788323610242</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03362125751546927</v>
+        <v>0.02856684418389942</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3899940627.605015</v>
+        <v>5194023638.279285</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08546629704786091</v>
+        <v>0.1012092618108164</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03096969505318786</v>
+        <v>0.0377464649657329</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>91</v>
+      </c>
+      <c r="J80" t="n">
+        <v>187</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3283845469.131187</v>
+        <v>3871222991.42459</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1184313944101477</v>
+        <v>0.1074472627089648</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0225525022811506</v>
+        <v>0.0224908613235541</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>85</v>
+      </c>
+      <c r="J81" t="n">
+        <v>187</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5099041653.354876</v>
+        <v>5546438062.095555</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1936489840693308</v>
+        <v>0.1931549574180067</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02699899610238641</v>
+        <v>0.02231720237490658</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>138</v>
+      </c>
+      <c r="J82" t="n">
+        <v>187</v>
+      </c>
+      <c r="K82" t="n">
+        <v>133.5393568266884</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2210098068.894962</v>
+        <v>2168191193.416131</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1095359646940093</v>
+        <v>0.1243544615073744</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04491000511032242</v>
+        <v>0.03154579791039153</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2508537917.729039</v>
+        <v>2025449216.950717</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09139711083122047</v>
+        <v>0.121148301087547</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04219687342254595</v>
+        <v>0.0464608711460303</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2679846486.008782</v>
+        <v>2524445962.051105</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1838464958413858</v>
+        <v>0.1631902673892112</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0354400928135901</v>
+        <v>0.03922515386320322</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>170</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2072201589.080328</v>
+        <v>2257230222.278849</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1457292171368313</v>
+        <v>0.1593762207615125</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01908402530990987</v>
+        <v>0.01771322602468056</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1094111538.5301</v>
+        <v>1241554287.242175</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1169869844792963</v>
+        <v>0.1359429465492208</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04043518282234886</v>
+        <v>0.04239568514504046</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3324906385.057375</v>
+        <v>3009952953.137476</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1690547980345307</v>
+        <v>0.1146623962546295</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03262569434978257</v>
+        <v>0.03035263899102567</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>27</v>
+      </c>
+      <c r="J88" t="n">
+        <v>185</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3372251266.547303</v>
+        <v>2454073077.409494</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1271427786983825</v>
+        <v>0.1474308546723365</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03746567203176603</v>
+        <v>0.02563872967220395</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1732767705.383763</v>
+        <v>1514181992.750557</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1286200086664021</v>
+        <v>0.1157033027487598</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05558689610827192</v>
+        <v>0.04925012220867345</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1764580998.05343</v>
+        <v>1330163616.929068</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1513173538352509</v>
+        <v>0.1635432395381117</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04420954569322354</v>
+        <v>0.05221681671558087</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2027679181.003932</v>
+        <v>2207690275.193122</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07910447606056115</v>
+        <v>0.07290769278677325</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03561640631064378</v>
+        <v>0.03023795434159054</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3724,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4494904983.699612</v>
+        <v>3112405014.831217</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09537113395220176</v>
+        <v>0.09417426779362596</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03979985935614817</v>
+        <v>0.04058137109466169</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>84</v>
+      </c>
+      <c r="J93" t="n">
+        <v>185</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2341100878.64131</v>
+        <v>2226958461.670573</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1159929068000781</v>
+        <v>0.1581165961679202</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03039909176798957</v>
+        <v>0.03094829182203771</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3024113701.621724</v>
+        <v>2791459398.377272</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1172080918309696</v>
+        <v>0.108830652813886</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0357698201413344</v>
+        <v>0.0509966910620407</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1477035363.338284</v>
+        <v>1862614464.629529</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08530466959838261</v>
+        <v>0.1222407316075041</v>
       </c>
       <c r="G96" t="n">
-        <v>0.042989979517579</v>
+        <v>0.03941507026178402</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4493886621.196908</v>
+        <v>3916448296.658695</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1766971858238915</v>
+        <v>0.1311638760426134</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01827976501622643</v>
+        <v>0.02149879107645733</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>90</v>
+      </c>
+      <c r="J97" t="n">
+        <v>187</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3128803037.553502</v>
+        <v>2561852296.340789</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08268766619834929</v>
+        <v>0.1289732184993192</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02105909458352668</v>
+        <v>0.02899042911317574</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>46</v>
+      </c>
+      <c r="J98" t="n">
+        <v>185</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3168511890.086103</v>
+        <v>3034932780.629987</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0995062976477486</v>
+        <v>0.08979757985809944</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02687771534596922</v>
+        <v>0.02138016387480648</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3752229898.142552</v>
+        <v>4626144558.093454</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1406829352021228</v>
+        <v>0.1652770774645704</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0251431740938142</v>
+        <v>0.018595532258151</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>78</v>
+      </c>
+      <c r="J100" t="n">
+        <v>186</v>
+      </c>
+      <c r="K100" t="n">
+        <v>118.2102609562593</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3093186843.368797</v>
+        <v>3121844716.259951</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2098613130895544</v>
+        <v>0.2093791421792039</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05137584651443237</v>
+        <v>0.0370944860936371</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
